--- a/test_demo/data/workorderquery.xlsx
+++ b/test_demo/data/workorderquery.xlsx
@@ -400,7 +400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
@@ -451,7 +451,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2101141734263951</t>
+          <t>2101291642024447</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -461,12 +461,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>mht</t>
+          <t>默认</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>二级审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -476,19 +476,19 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2101151727191208</t>
+          <t>2101291642123747</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>文本</t>
+          <t>图片</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -498,12 +498,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>不通过</t>
+          <t>通过</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -515,7 +515,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2101151037241127</t>
+          <t>2101291642343168</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -530,7 +530,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -547,12 +547,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2101151037143680</t>
+          <t>2101291552276093</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>图片</t>
+          <t>视频</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -562,12 +562,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>不通过</t>
+          <t>通过</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -579,7 +579,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2101151034046452</t>
+          <t>2101291552376515</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -594,12 +594,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>不通过</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -611,12 +611,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2101151033541726</t>
+          <t>2101291552465637</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>视频</t>
+          <t>图片</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -626,12 +626,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>不通过</t>
+          <t>通过</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -643,27 +643,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2101151033424529</t>
+          <t>2101141734262060</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>视频</t>
+          <t>图片</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>默认</t>
+          <t>mht</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>不通过</t>
+          <t>通过</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -675,27 +675,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2101151008470872</t>
+          <t>2101141734268675</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>视频</t>
+          <t>图片</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>默认</t>
+          <t>mht</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>不通过</t>
+          <t>通过</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -707,22 +707,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2101151011045135</t>
+          <t>2101141734262243</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>视频</t>
+          <t>图片</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>默认</t>
+          <t>mht</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -739,7 +739,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2101151012266298</t>
+          <t>2101141734264873</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>默认</t>
+          <t>mht</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>二级审核中</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -764,14 +764,14 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>通过</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2101151012362299</t>
+          <t>2101141734267751</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -781,12 +781,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>默认</t>
+          <t>mht</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -803,22 +803,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2101151012458066</t>
+          <t>2101141734262347</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>文本</t>
+          <t>图片</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>默认</t>
+          <t>mht</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>二级审核中</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -828,29 +828,29 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>通过</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2101151010545634</t>
+          <t>2101141734263329</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>文本</t>
+          <t>图片</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>默认</t>
+          <t>mht</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -867,22 +867,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2101151010433369</t>
+          <t>2101141734269024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>文本</t>
+          <t>图片</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>默认</t>
+          <t>mht</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -899,22 +899,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2101151008565762</t>
+          <t>2101141734262714</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>文本</t>
+          <t>图片</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>默认</t>
+          <t>mht</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -931,27 +931,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2101151008375603</t>
+          <t>2101141734263367</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>文本</t>
+          <t>图片</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>默认</t>
+          <t>mht</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>不通过</t>
+          <t>通过</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -963,7 +963,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2101141734262144</t>
+          <t>2101141734265537</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -995,7 +995,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2101141734260294</t>
+          <t>2101141734261694</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1027,7 +1027,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2101141734269964</t>
+          <t>2101141734264211</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1059,22 +1059,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2101141734261874</t>
+          <t>2101151008565762</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>图片</t>
+          <t>文本</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>mht</t>
+          <t>默认</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>二级审核中</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1084,14 +1084,14 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>通过</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2101141734263367</t>
+          <t>2101141734268365</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1123,7 +1123,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2101141734262427</t>
+          <t>2101141734265361</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1138,7 +1138,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1155,7 +1155,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2101141734264552</t>
+          <t>2101141734268323</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1187,7 +1187,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2101141734263080</t>
+          <t>2101141734262144</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>二级审核中</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1212,14 +1212,14 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>通过</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2101141734264816</t>
+          <t>2101141734260031</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>二级审核中</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1244,14 +1244,14 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>通过</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2101141734264749</t>
+          <t>2101141734260616</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1283,7 +1283,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2101141734261904</t>
+          <t>2101141734266814</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1315,7 +1315,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2101141734265854</t>
+          <t>2101141734261668</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1347,7 +1347,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2101141734265644</t>
+          <t>2101141734263582</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1379,7 +1379,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2101141734269971</t>
+          <t>2101141734262389</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1411,7 +1411,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2101141734261668</t>
+          <t>2101141734267306</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1443,7 +1443,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2101141734268323</t>
+          <t>2101141734269558</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1475,7 +1475,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2101141734269558</t>
+          <t>2101141734261562</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1507,7 +1507,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2101141734269501</t>
+          <t>2101141734268103</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1571,7 +1571,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2101141734261562</t>
+          <t>2101141734264749</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1603,7 +1603,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2101141734268103</t>
+          <t>2101141734269583</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1618,7 +1618,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>二级审核中</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1628,14 +1628,14 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>通过</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2101141734267306</t>
+          <t>2101141734265854</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1650,7 +1650,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1667,7 +1667,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2101141734261242</t>
+          <t>2101141734261904</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1699,7 +1699,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2101141734263582</t>
+          <t>2101141734264816</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1731,27 +1731,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2101141734263376</t>
+          <t>2101151008375603</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>图片</t>
+          <t>文本</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>mht</t>
+          <t>默认</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>不通过</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1763,7 +1763,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2101141734264873</t>
+          <t>2101141734264552</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1795,7 +1795,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2101141734260616</t>
+          <t>2101141734263080</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1827,22 +1827,22 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2101141734262389</t>
+          <t>2101151010433369</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>图片</t>
+          <t>文本</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>mht</t>
+          <t>默认</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1859,7 +1859,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2101141734266814</t>
+          <t>2101141734266924</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1891,27 +1891,27 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2101141734262815</t>
+          <t>2101151008470872</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>图片</t>
+          <t>视频</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>mht</t>
+          <t>默认</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>不通过</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -1923,7 +1923,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2101141734264211</t>
+          <t>2101141734262587</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1955,7 +1955,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2101141734266924</t>
+          <t>2101141734262427</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1970,7 +1970,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1987,7 +1987,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2101141734268365</t>
+          <t>2101141734269964</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2019,7 +2019,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2101141734265361</t>
+          <t>2101141734262815</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2051,7 +2051,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2101141734262587</t>
+          <t>2101141734260294</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2083,7 +2083,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2101141734261860</t>
+          <t>2101141734263376</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2115,22 +2115,22 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2101141734265537</t>
+          <t>2101151012458066</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>图片</t>
+          <t>文本</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>mht</t>
+          <t>默认</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2147,7 +2147,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2101141734261694</t>
+          <t>2101151012362299</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2157,12 +2157,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>mht</t>
+          <t>默认</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2179,7 +2179,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2101141734269024</t>
+          <t>2101141734261242</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2194,7 +2194,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2211,7 +2211,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2101141734262243</t>
+          <t>2101151037143680</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2221,17 +2221,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>mht</t>
+          <t>默认</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>不通过</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2243,7 +2243,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2101141734262347</t>
+          <t>2101141734269501</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2258,7 +2258,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2275,22 +2275,22 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2101141734263329</t>
+          <t>2101151010545634</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>图片</t>
+          <t>文本</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>mht</t>
+          <t>默认</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2307,7 +2307,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2101141734262980</t>
+          <t>2101141734269971</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2322,7 +2322,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2339,27 +2339,27 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2101141734262714</t>
+          <t>2101151727191208</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>图片</t>
+          <t>文本</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>mht</t>
+          <t>默认</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>不通过</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2371,7 +2371,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2101141734267751</t>
+          <t>2101141734265644</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2403,22 +2403,22 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2101141734262728</t>
+          <t>2101151034046452</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>图片</t>
+          <t>文本</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>mht</t>
+          <t>默认</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2435,7 +2435,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2101141734262060</t>
+          <t>2101151012266298</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2445,12 +2445,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>mht</t>
+          <t>默认</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2467,22 +2467,22 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2101141734268675</t>
+          <t>2101151011045135</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>图片</t>
+          <t>视频</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>mht</t>
+          <t>默认</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2499,7 +2499,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2101141734260071</t>
+          <t>2101151037241127</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2509,12 +2509,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>mht</t>
+          <t>默认</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2531,27 +2531,27 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2101141734266874</t>
+          <t>2101151033424529</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>图片</t>
+          <t>视频</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>mht</t>
+          <t>默认</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>不通过</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2563,27 +2563,27 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2101141734267076</t>
+          <t>2101151033541726</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>图片</t>
+          <t>视频</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>mht</t>
+          <t>默认</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>不通过</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2595,27 +2595,27 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2101141734261130</t>
+          <t>2101081818591859</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>图片</t>
+          <t>文本</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>mht</t>
+          <t>默认</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>不通过</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2627,7 +2627,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2101141734269285</t>
+          <t>2101061025154458</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2659,7 +2659,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2101141734261560</t>
+          <t>2101061025150913</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2674,12 +2674,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>不通过</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2691,7 +2691,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2101141734267926</t>
+          <t>2101061032506115</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2706,12 +2706,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>不通过</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -2723,27 +2723,27 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2101141734269234</t>
+          <t>2101081407419783</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>图片</t>
+          <t>视频</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>mht</t>
+          <t>默认</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>不通过</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -2755,103 +2755,103 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2101141734262943</t>
+          <t>2101081407445241</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>图片</t>
+          <t>视频</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>mht</t>
+          <t>默认</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>二级审核中</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>不通过</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>通过</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2101141734263074</t>
+          <t>2101081407568724</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>图片</t>
+          <t>视频</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>mht</t>
+          <t>默认</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>二级审核中</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>不通过</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>通过</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2101141734260444</t>
+          <t>2101081407356105</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>图片</t>
+          <t>视频</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>mht</t>
+          <t>默认</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>二级审核中</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>不通过</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>通过</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2101141734267745</t>
+          <t>2101071626531354</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2866,7 +2866,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2883,7 +2883,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2101141734262856</t>
+          <t>2101071626532585</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2915,7 +2915,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2101141734265655</t>
+          <t>2101071632053268</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2925,12 +2925,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>mht</t>
+          <t>默认</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2947,7 +2947,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2101141734263192</t>
+          <t>2101071632053962</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2957,12 +2957,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>mht</t>
+          <t>默认</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2979,7 +2979,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2101141734268488</t>
+          <t>2101071632053736</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2989,12 +2989,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>mht</t>
+          <t>默认</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3011,7 +3011,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2101141734260176</t>
+          <t>2101071632050466</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3021,17 +3021,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>mht</t>
+          <t>默认</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>不通过</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3043,7 +3043,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2101141734268341</t>
+          <t>2101071632056561</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3053,12 +3053,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>mht</t>
+          <t>默认</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3075,7 +3075,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2101141734265041</t>
+          <t>2101071632051617</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3085,12 +3085,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>mht</t>
+          <t>默认</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3107,7 +3107,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2101141734262640</t>
+          <t>2101071632057525</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3117,12 +3117,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>mht</t>
+          <t>默认</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3139,7 +3139,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2101141734261360</t>
+          <t>2101061032505652</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3154,12 +3154,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>不通过</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3171,7 +3171,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2101141734267735</t>
+          <t>2101071623366427</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3186,12 +3186,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>不通过</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3203,7 +3203,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2101141734269522</t>
+          <t>2101071623352085</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3218,12 +3218,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>不通过</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3235,7 +3235,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2101141734266834</t>
+          <t>2101071626527248</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3250,12 +3250,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>不通过</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3267,7 +3267,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2101141734268337</t>
+          <t>2101071626528150</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3282,12 +3282,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>不通过</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -3299,7 +3299,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2101141734266522</t>
+          <t>2101071626534620</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3314,12 +3314,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>不通过</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3331,12 +3331,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2101141734267140</t>
+          <t>2101071626518603</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>图片</t>
+          <t>文本</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3346,12 +3346,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>不通过</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -3363,7 +3363,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2101141734263484</t>
+          <t>2101071626506493</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3378,12 +3378,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>不通过</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3395,7 +3395,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2101141734266250</t>
+          <t>2101071626502065</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3410,12 +3410,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>不通过</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3427,27 +3427,27 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2101141734266170</t>
+          <t>2101071617362017</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>图片</t>
+          <t>文本</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>mht</t>
+          <t>默认</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>不通过</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3459,22 +3459,22 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2101141734268756</t>
+          <t>2101071617363066</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>图片</t>
+          <t>文本</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>mht</t>
+          <t>默认</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3491,22 +3491,22 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2101141734260596</t>
+          <t>2101071617368129</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>图片</t>
+          <t>文本</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>mht</t>
+          <t>默认</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3523,7 +3523,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2101141734260861</t>
+          <t>2101071617363422</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3533,12 +3533,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>mht</t>
+          <t>默认</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3555,7 +3555,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2101141734269065</t>
+          <t>2101071617361975</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3565,12 +3565,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>mht</t>
+          <t>默认</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3587,7 +3587,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2101141734265136</t>
+          <t>2101071617364931</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3597,12 +3597,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>mht</t>
+          <t>默认</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3619,7 +3619,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2101141734267173</t>
+          <t>2101071617489181</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3629,12 +3629,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>mht</t>
+          <t>默认</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3651,7 +3651,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2101141734269622</t>
+          <t>2101061600533893</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3661,12 +3661,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>mht</t>
+          <t>默认</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3683,7 +3683,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2101141734260669</t>
+          <t>2101061600537786</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3693,12 +3693,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>mht</t>
+          <t>默认</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3715,7 +3715,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2101141734265718</t>
+          <t>2101061600536083</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3725,12 +3725,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>mht</t>
+          <t>默认</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3747,7 +3747,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2101141734266643</t>
+          <t>2101061600536908</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3757,12 +3757,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>mht</t>
+          <t>默认</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3779,7 +3779,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2101141734265885</t>
+          <t>2101061600533499</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3789,12 +3789,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>mht</t>
+          <t>默认</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3811,7 +3811,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2101141734267468</t>
+          <t>2101061600537222</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3821,12 +3821,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>mht</t>
+          <t>默认</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3843,22 +3843,22 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2101141734262809</t>
+          <t>2101061603449694</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>文本</t>
+          <t>图片</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>mht</t>
+          <t>默认</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3875,27 +3875,27 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2101141734266220</t>
+          <t>2101061603449868</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>文本</t>
+          <t>图片</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>mht</t>
+          <t>默认</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>不通过</t>
+          <t>通过</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -3907,7 +3907,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2101141734265594</t>
+          <t>2101061603442981</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3917,12 +3917,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>mht</t>
+          <t>默认</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3939,22 +3939,22 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2101141734261961</t>
+          <t>2101061600532789</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>文本</t>
+          <t>图片</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>mht</t>
+          <t>默认</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3971,7 +3971,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2101141734264253</t>
+          <t>2101061600537004</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3981,17 +3981,17 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>mht</t>
+          <t>默认</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>不通过</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4003,12 +4003,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2101141734255864</t>
+          <t>2012291710534548</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>图片</t>
+          <t>文本</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4018,7 +4018,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4035,7 +4035,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2101141734267782</t>
+          <t>2012291710538090</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4050,12 +4050,12 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>机器审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>不通过</t>
+          <t>通过</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4067,118 +4067,118 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2101141721115326</t>
+          <t>2012291710536576</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>图片</t>
+          <t>文本</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>默认</t>
+          <t>mht</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>二级审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>不通过</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2101141721111768</t>
+          <t>2101061023288776</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>图片</t>
+          <t>文本</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>默认</t>
+          <t>mht</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>二级审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>不通过</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2101141720528733</t>
+          <t>2101061023283685</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>图片</t>
+          <t>文本</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>默认</t>
+          <t>mht</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>一级审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>不通过</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2101141720504809</t>
+          <t>2101061025158620</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>视频</t>
+          <t>文本</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>默认</t>
+          <t>mht</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>一级审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -4188,1061 +4188,101 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2101141720460304</t>
+          <t>2101061025151695</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>图片</t>
+          <t>文本</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>默认</t>
+          <t>mht</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>一级审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>不通过</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2101141720455217</t>
+          <t>2101061032506306</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>图片</t>
+          <t>文本</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>默认</t>
+          <t>mht</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>一级审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>不通过</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2101141720459603</t>
+          <t>2101061032507275</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>图片</t>
+          <t>文本</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>默认</t>
+          <t>mht</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>一级审核完成</t>
+          <t>一级审核中</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>不通过</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>2101141720453440</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>文本</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>默认</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>一级审核完成</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>2101141559058094</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>图片</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>默认</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>一级审核完成</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>2101141558468857</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>文本</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>默认</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>一级审核完成</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>不通过</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>2101141556068229</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>图片</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>默认</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>一级审核完成</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>2101141555561958</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>图片</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>默认</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>机器审核完成</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>2101141535152578</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>图片</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>默认</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>机器审核完成</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>2101141538581894</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>图片</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>默认</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>机器审核完成</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>不通过</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>2101141548427776</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>图片</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>默认</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>机器审核完成</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>2101141548527469</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>图片</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>默认</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>机器审核完成</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>2101141535248127</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>图片</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>默认</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>机器审核完成</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>2101141544280735</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>图片</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>默认</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>机器审核完成</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>2101141544476906</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>图片</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>默认</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>机器审核完成</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>2101141548333980</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>视频</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>默认</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>机器审核完成</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>不通过</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>2101141535081942</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>图片</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>默认</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>机器审核完成</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>2101141544385581</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>文本</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>默认</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>机器审核完成</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>不通过</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>2101141220068624</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>图片</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>默认</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>机器审核完成</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>2101141217356283</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>视频</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>默认</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>机器审核完成</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>2101141219574283</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>图片</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>默认</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>机器审核完成</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>2101141214407893</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>视频</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>默认</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>机器审核完成</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>不通过</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>2101141214318654</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>视频</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>默认</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>机器审核完成</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>不通过</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>2101141219491091</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>文本</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>默认</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>机器审核完成</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>不通过</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>2101131601492914</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>图片</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>默认</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>机器审核完成</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>2101131601291629</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>图片</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>默认</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>机器审核完成</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>2101131557511845</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>图片</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>默认</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>机器审核完成</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>2101131557511536</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>图片</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>默认</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>机器审核完成</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>2101131557504504</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>图片</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>默认</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>机器审核完成</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>2101131556292612</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>图片</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>默认</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>机器审核完成</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>2101131556294353</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>图片</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>默认</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>机器审核完成</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>2101131556294321</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>图片</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>默认</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>机器审核完成</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>2101131556290386</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>图片</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>默认</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>机器审核完成</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
         <is>
           <t>-</t>
         </is>
